--- a/Rebuild/Default.xlsx
+++ b/Rebuild/Default.xlsx
@@ -2,27 +2,53 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="Action1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="40001"/>
+  <calcPr fullPrecision="1" calcId="40001"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7" count="9">
+  <si>
+    <t>salutation</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>Bugs Buny</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Goofy</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="17">
+<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -30,6 +56,7 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -38,6 +65,7 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -45,6 +73,15 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -52,6 +89,7 @@
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -60,6 +98,7 @@
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -68,6 +107,7 @@
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -76,6 +116,7 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -84,6 +125,7 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,6 +133,7 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,6 +142,7 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,6 +150,7 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,6 +159,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,6 +167,7 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,6 +175,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri Light"/>
+      <charset val="0"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -135,6 +183,7 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,18 +192,62 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2B579A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF2B579A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -162,18 +255,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF2B579A"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF2B579A"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ConditionalFormatStyle" xfId="1"/>
+    <cellStyle name="HeaderStyle" xfId="2"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -466,37 +578,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
+  <dimension ref="A1:XFC4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="normal" tabSelected="1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="16383" width="9" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="74.16015625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" customFormat="1" ht="15.1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>987654322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>876534567</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView view="normal" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.95"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
-  <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
 </worksheet>
 </file>
--- a/Rebuild/Default.xlsx
+++ b/Rebuild/Default.xlsx
@@ -615,26 +615,14 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>987654322</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>876534567</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
